--- a/assets/carro_percapita.xlsx
+++ b/assets/carro_percapita.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\geostats\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34DBF84A-DE4F-4AD9-A59F-FD494B2B15FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89C1890-E8D5-4205-B342-53F93CDC761E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="19440" windowHeight="11790" activeTab="1" xr2:uid="{9EC2AAEA-794A-4B70-A59C-2EBF72F0F8EA}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="pob" sheetId="1" r:id="rId1"/>
     <sheet name="carros" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">carros!$A$1:$F$52</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="143">
   <si>
     <t>MUNICIPIO</t>
   </si>
@@ -385,15 +388,6 @@
     <t>CiÃ©nega de Flores</t>
   </si>
   <si>
-    <t>COLOMBIA</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>DATO NO REGISTRADO</t>
-  </si>
-  <si>
     <t>Doctor Arroyo</t>
   </si>
   <si>
@@ -466,10 +460,13 @@
     <t>San Pedro Garza GarcÃ­a</t>
   </si>
   <si>
-    <t>SN R DE GALEANA</t>
-  </si>
-  <si>
     <t>General Zaragoza</t>
+  </si>
+  <si>
+    <t>poblacion</t>
+  </si>
+  <si>
+    <t>veh_percap</t>
   </si>
 </sst>
 </file>
@@ -505,8 +502,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,7 +821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69962212-1451-455C-A7B6-DC876619CC9F}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection sqref="A1:D53"/>
     </sheetView>
   </sheetViews>
@@ -1578,15 +1576,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E981EF-628A-4A4C-AD9E-EA665B1C46AA}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D55"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>108</v>
       </c>
@@ -1599,50 +1597,80 @@
       <c r="D1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="D2">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>125511</v>
+      </c>
+      <c r="E2">
+        <f>+VLOOKUP($B2,pob!$A$3:$C$53,3,0)</f>
+        <v>132169</v>
+      </c>
+      <c r="F2" s="1">
+        <f>+D2/E2</f>
+        <v>0.94962510119619581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="D3">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>286625</v>
+      </c>
+      <c r="E3">
+        <f>+VLOOKUP($B3,pob!$A$3:$C$53,3,0)</f>
+        <v>412199</v>
+      </c>
+      <c r="F3" s="1">
+        <f>+D3/E3</f>
+        <v>0.69535588392984937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D4">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31391</v>
+      </c>
+      <c r="E4">
+        <f>+VLOOKUP($B4,pob!$A$3:$C$53,3,0)</f>
+        <v>46784</v>
+      </c>
+      <c r="F4" s="1">
+        <f>+D4/E4</f>
+        <v>0.67097725718194257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1655,92 +1683,148 @@
       <c r="D5">
         <v>23526</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f>+VLOOKUP($B5,pob!$A$3:$C$53,3,0)</f>
+        <v>35289</v>
+      </c>
+      <c r="F5" s="1">
+        <f>+D5/E5</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D6">
-        <v>4608</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+      <c r="E6">
+        <f>+VLOOKUP($A6,pob!$A$3:$C$53,3,0)</f>
+        <v>1360</v>
+      </c>
+      <c r="F6" s="1">
+        <f>+D6/E6</f>
+        <v>0.61691176470588238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="D7">
-        <v>237137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>697050</v>
+      </c>
+      <c r="E7">
+        <f>+VLOOKUP($B7,pob!$A$3:$C$53,3,0)</f>
+        <v>1142994</v>
+      </c>
+      <c r="F7" s="1">
+        <f>+D7/E7</f>
+        <v>0.6098457209749133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>2963</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4398</v>
+      </c>
+      <c r="E8">
+        <f>+VLOOKUP($B8,pob!$A$3:$C$53,3,0)</f>
+        <v>7340</v>
+      </c>
+      <c r="F8" s="1">
+        <f>+D8/E8</f>
+        <v>0.59918256130790193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1869</v>
+      </c>
+      <c r="E9">
+        <f>+VLOOKUP($B9,pob!$A$3:$C$53,3,0)</f>
+        <v>3382</v>
+      </c>
+      <c r="F9" s="1">
+        <f>+D9/E9</f>
+        <v>0.55263157894736847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>49813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>347855</v>
+      </c>
+      <c r="E10">
+        <f>+VLOOKUP($B10,pob!$A$3:$C$53,3,0)</f>
+        <v>643143</v>
+      </c>
+      <c r="F10" s="1">
+        <f>+D10/E10</f>
+        <v>0.54086727213077035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="D11">
-        <v>4398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1803</v>
+      </c>
+      <c r="E11">
+        <f>+VLOOKUP($B11,pob!$A$3:$C$53,3,0)</f>
+        <v>3573</v>
+      </c>
+      <c r="F11" s="1">
+        <f>+D11/E11</f>
+        <v>0.50461796809403858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1753,316 +1837,500 @@
       <c r="D12">
         <v>4991</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f>+VLOOKUP($B12,pob!$A$3:$C$53,3,0)</f>
+        <v>9930</v>
+      </c>
+      <c r="F12" s="1">
+        <f>+D12/E12</f>
+        <v>0.50261832829808661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D13">
-        <v>12268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2743</v>
+      </c>
+      <c r="E13">
+        <f>+VLOOKUP($A13,pob!$A$3:$C$53,3,0)</f>
+        <v>5506</v>
+      </c>
+      <c r="F13" s="1">
+        <f>+D13/E13</f>
+        <v>0.49818379949146385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14">
+        <v>6854</v>
+      </c>
+      <c r="E14">
+        <f>+VLOOKUP($A14,pob!$A$3:$C$53,3,0)</f>
+        <v>14109</v>
+      </c>
+      <c r="F14" s="1">
+        <f>+D14/E14</f>
+        <v>0.48578921255935925</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15">
+        <v>440</v>
+      </c>
+      <c r="E15">
+        <f>+VLOOKUP($B15,pob!$A$3:$C$53,3,0)</f>
+        <v>906</v>
+      </c>
+      <c r="F15" s="1">
+        <f>+D15/E15</f>
+        <v>0.4856512141280353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16">
+        <v>16362</v>
+      </c>
+      <c r="E16">
+        <f>+VLOOKUP($B16,pob!$A$3:$C$53,3,0)</f>
+        <v>34709</v>
+      </c>
+      <c r="F16" s="1">
+        <f>+D16/E16</f>
+        <v>0.47140511106629407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17">
+        <v>727</v>
+      </c>
+      <c r="E17">
+        <f>+VLOOKUP($B17,pob!$A$3:$C$53,3,0)</f>
+        <v>1552</v>
+      </c>
+      <c r="F17" s="1">
+        <f>+D17/E17</f>
+        <v>0.46842783505154639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18">
+        <v>2370</v>
+      </c>
+      <c r="E18">
+        <f>+VLOOKUP($B18,pob!$A$3:$C$53,3,0)</f>
+        <v>5119</v>
+      </c>
+      <c r="F18" s="1">
+        <f>+D18/E18</f>
+        <v>0.46298105098652081</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19">
+        <v>30904</v>
+      </c>
+      <c r="E19">
+        <f>+VLOOKUP($B19,pob!$A$3:$C$53,3,0)</f>
+        <v>67428</v>
+      </c>
+      <c r="F19" s="1">
+        <f>+D19/E19</f>
+        <v>0.45832591801625439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20">
+        <v>1435</v>
+      </c>
+      <c r="E20">
+        <f>+VLOOKUP($A20,pob!$A$3:$C$53,3,0)</f>
+        <v>3256</v>
+      </c>
+      <c r="F20" s="1">
+        <f>+D20/E20</f>
+        <v>0.4407248157248157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21">
+        <v>2358</v>
+      </c>
+      <c r="E21">
+        <f>+VLOOKUP($A21,pob!$A$3:$C$53,3,0)</f>
+        <v>5389</v>
+      </c>
+      <c r="F21" s="1">
+        <f>+D21/E21</f>
+        <v>0.43755798849508259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22">
+        <v>6873</v>
+      </c>
+      <c r="E22">
+        <f>+VLOOKUP($B22,pob!$A$3:$C$53,3,0)</f>
+        <v>16086</v>
+      </c>
+      <c r="F22" s="1">
+        <f>+D22/E22</f>
+        <v>0.42726594554270797</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23">
+        <v>586</v>
+      </c>
+      <c r="E23">
+        <f>+VLOOKUP($B23,pob!$A$3:$C$53,3,0)</f>
+        <v>1386</v>
+      </c>
+      <c r="F23" s="1">
+        <f>+D23/E23</f>
+        <v>0.42279942279942279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24">
+        <v>49813</v>
+      </c>
+      <c r="E24">
+        <f>+VLOOKUP($B24,pob!$A$3:$C$53,3,0)</f>
+        <v>122337</v>
+      </c>
+      <c r="F24" s="1">
+        <f>+D24/E24</f>
+        <v>0.40717853143366273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>120732</v>
+      </c>
+      <c r="E25">
+        <f>+VLOOKUP($B25,pob!$A$3:$C$53,3,0)</f>
+        <v>306322</v>
+      </c>
+      <c r="F25" s="1">
+        <f>+D25/E25</f>
+        <v>0.39413427700263121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26">
+        <v>751</v>
+      </c>
+      <c r="E26">
+        <f>+VLOOKUP($A26,pob!$A$3:$C$53,3,0)</f>
+        <v>1959</v>
+      </c>
+      <c r="F26" s="1">
+        <f>+D26/E26</f>
+        <v>0.38335885655946911</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>1089</v>
+      </c>
+      <c r="E27">
+        <f>+VLOOKUP($B27,pob!$A$3:$C$53,3,0)</f>
+        <v>2974</v>
+      </c>
+      <c r="F27" s="1">
+        <f>+D27/E27</f>
+        <v>0.36617350369872226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>237137</v>
+      </c>
+      <c r="E28">
+        <f>+VLOOKUP($B28,pob!$A$3:$C$53,3,0)</f>
+        <v>656464</v>
+      </c>
+      <c r="F28" s="1">
+        <f>+D28/E28</f>
+        <v>0.3612338224182895</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29">
+        <v>2528</v>
+      </c>
+      <c r="E29">
+        <f>+VLOOKUP($B29,pob!$A$3:$C$53,3,0)</f>
+        <v>7026</v>
+      </c>
+      <c r="F29" s="1">
+        <f>+D29/E29</f>
+        <v>0.35980643324793626</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30">
+        <v>623</v>
+      </c>
+      <c r="E30">
+        <f>+VLOOKUP($A30,pob!$A$3:$C$53,3,0)</f>
+        <v>1808</v>
+      </c>
+      <c r="F30" s="1">
+        <f>+D30/E30</f>
+        <v>0.34457964601769914</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
         <v>116</v>
       </c>
-      <c r="B14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16">
+      <c r="C31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31">
         <v>12422</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19">
-        <v>7863</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20">
-        <v>10810</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21">
-        <v>54481</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22">
-        <v>2743</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23">
-        <v>147728</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24">
-        <v>6854</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26">
-        <v>12119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27">
-        <v>347855</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29">
-        <v>6873</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31">
-        <v>2528</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f>+VLOOKUP($A31,pob!$A$3:$C$53,3,0)</f>
+        <v>36088</v>
+      </c>
+      <c r="F31" s="1">
+        <f>+D31/E31</f>
+        <v>0.34421414320549765</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D32">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+      <c r="E32">
+        <f>+VLOOKUP($B32,pob!$A$3:$C$53,3,0)</f>
+        <v>1483</v>
+      </c>
+      <c r="F32" s="1">
+        <f>+D32/E32</f>
+        <v>0.33850303438975049</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D33">
-        <v>80820</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+      <c r="E33">
+        <f>+VLOOKUP($A33,pob!$A$3:$C$53,3,0)</f>
+        <v>1407</v>
+      </c>
+      <c r="F33" s="1">
+        <f>+D33/E33</f>
+        <v>0.31911869225302059</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="D34">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1870</v>
+      </c>
+      <c r="E34">
+        <f>+VLOOKUP($B34,pob!$A$3:$C$53,3,0)</f>
+        <v>6048</v>
+      </c>
+      <c r="F34" s="1">
+        <f>+D34/E34</f>
+        <v>0.30919312169312169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -2075,282 +2343,395 @@
       <c r="D35">
         <v>26148</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <f>+VLOOKUP($B35,pob!$A$3:$C$53,3,0)</f>
+        <v>84666</v>
+      </c>
+      <c r="F35" s="1">
+        <f>+D35/E35</f>
+        <v>0.30883707745730282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36">
+        <v>147728</v>
+      </c>
+      <c r="E36">
+        <f>+VLOOKUP($A36,pob!$A$3:$C$53,3,0)</f>
+        <v>481213</v>
+      </c>
+      <c r="F36" s="1">
+        <f>+D36/E36</f>
+        <v>0.30699087514260837</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37">
+        <v>1111</v>
+      </c>
+      <c r="E37">
+        <f>+VLOOKUP($B37,pob!$A$3:$C$53,3,0)</f>
+        <v>3661</v>
+      </c>
+      <c r="F37" s="1">
+        <f>+D37/E37</f>
+        <v>0.30346899754165529</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38">
+        <v>1449</v>
+      </c>
+      <c r="E38">
+        <f>+VLOOKUP($A38,pob!$A$3:$C$53,3,0)</f>
+        <v>5351</v>
+      </c>
+      <c r="F38" s="1">
+        <f>+D38/E38</f>
+        <v>0.270790506447393</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39">
+        <v>10810</v>
+      </c>
+      <c r="E39">
+        <f>+VLOOKUP($B39,pob!$A$3:$C$53,3,0)</f>
+        <v>40903</v>
+      </c>
+      <c r="F39" s="1">
+        <f>+D39/E39</f>
+        <v>0.26428379336478985</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40">
+        <v>4608</v>
+      </c>
+      <c r="E40">
+        <f>+VLOOKUP($B40,pob!$A$3:$C$53,3,0)</f>
+        <v>18030</v>
+      </c>
+      <c r="F40" s="1">
+        <f>+D40/E40</f>
+        <v>0.25557404326123129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41">
+        <v>569</v>
+      </c>
+      <c r="E41">
+        <f>+VLOOKUP($B41,pob!$A$3:$C$53,3,0)</f>
+        <v>2377</v>
+      </c>
+      <c r="F41" s="1">
+        <f>+D41/E41</f>
+        <v>0.23937736642827093</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42">
+        <v>737</v>
+      </c>
+      <c r="E42">
+        <f>+VLOOKUP($B42,pob!$A$3:$C$53,3,0)</f>
+        <v>3298</v>
+      </c>
+      <c r="F42" s="1">
+        <f>+D42/E42</f>
+        <v>0.22346876895087933</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>2963</v>
+      </c>
+      <c r="E43">
+        <f>+VLOOKUP($B43,pob!$A$3:$C$53,3,0)</f>
+        <v>14992</v>
+      </c>
+      <c r="F43" s="1">
+        <f>+D43/E43</f>
+        <v>0.19763874066168624</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44">
+        <v>12268</v>
+      </c>
+      <c r="E44">
+        <f>+VLOOKUP($B44,pob!$A$3:$C$53,3,0)</f>
+        <v>68747</v>
+      </c>
+      <c r="F44" s="1">
+        <f>+D44/E44</f>
+        <v>0.17845142333483643</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45">
+        <v>80820</v>
+      </c>
+      <c r="E45">
+        <f>+VLOOKUP($B45,pob!$A$3:$C$53,3,0)</f>
+        <v>471523</v>
+      </c>
+      <c r="F45" s="1">
+        <f>+D45/E45</f>
+        <v>0.17140203129009612</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46">
+        <v>13645</v>
+      </c>
+      <c r="E46">
+        <f>+VLOOKUP($B46,pob!$A$3:$C$53,3,0)</f>
+        <v>86766</v>
+      </c>
+      <c r="F46" s="1">
+        <f>+D46/E46</f>
+        <v>0.15726206117603669</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47">
+        <v>1135</v>
+      </c>
+      <c r="E47">
+        <f>+VLOOKUP($B47,pob!$A$3:$C$53,3,0)</f>
+        <v>7652</v>
+      </c>
+      <c r="F47" s="1">
+        <f>+D47/E47</f>
+        <v>0.14832723470987977</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48">
+        <v>54481</v>
+      </c>
+      <c r="E48">
+        <f>+VLOOKUP($B48,pob!$A$3:$C$53,3,0)</f>
+        <v>397205</v>
+      </c>
+      <c r="F48" s="1">
+        <f>+D48/E48</f>
+        <v>0.13716091187170354</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49">
+        <v>754</v>
+      </c>
+      <c r="E49">
+        <f>+VLOOKUP($A49,pob!$A$3:$C$53,3,0)</f>
+        <v>6282</v>
+      </c>
+      <c r="F49" s="1">
+        <f>+D49/E49</f>
+        <v>0.12002546959567018</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50">
+        <v>12119</v>
+      </c>
+      <c r="E50">
+        <f>+VLOOKUP($A50,pob!$A$3:$C$53,3,0)</f>
+        <v>102149</v>
+      </c>
+      <c r="F50" s="1">
+        <f>+D50/E50</f>
+        <v>0.1186404174294413</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" t="s">
         <v>134</v>
       </c>
-      <c r="D36">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C51" t="s">
         <v>135</v>
       </c>
-      <c r="C38" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40">
-        <v>30904</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41">
-        <v>697050</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43" t="s">
-        <v>138</v>
-      </c>
-      <c r="D43">
+      <c r="D51">
         <v>13146</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" t="s">
-        <v>139</v>
-      </c>
-      <c r="C44" t="s">
-        <v>139</v>
-      </c>
-      <c r="D44">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46">
-        <v>16362</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47">
-        <v>13645</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" t="s">
-        <v>140</v>
-      </c>
-      <c r="C48" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48">
-        <v>286625</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" t="s">
-        <v>142</v>
-      </c>
-      <c r="D49">
-        <v>125511</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" t="s">
-        <v>100</v>
-      </c>
-      <c r="D50">
-        <v>120732</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" t="s">
-        <v>102</v>
-      </c>
-      <c r="D51">
-        <v>31391</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <f>+VLOOKUP($A51,pob!$A$3:$C$53,3,0)</f>
+        <v>147624</v>
+      </c>
+      <c r="F51" s="1">
+        <f>+D51/E51</f>
+        <v>8.9050560884409033E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>143</v>
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" t="s">
+        <v>22</v>
       </c>
       <c r="D52">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>105</v>
-      </c>
-      <c r="B53" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>107</v>
-      </c>
-      <c r="B54" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" t="s">
-        <v>144</v>
-      </c>
-      <c r="C55" t="s">
-        <v>144</v>
-      </c>
-      <c r="D55">
-        <v>754</v>
+        <v>7863</v>
+      </c>
+      <c r="E52">
+        <f>+VLOOKUP($B52,pob!$A$3:$C$53,3,0)</f>
+        <v>104478</v>
+      </c>
+      <c r="F52" s="1">
+        <f>+D52/E52</f>
+        <v>7.5259863320507672E-2</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F52" xr:uid="{74E981EF-628A-4A4C-AD9E-EA665B1C46AA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F52">
+      <sortCondition descending="1" ref="F1:F52"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>